--- a/database/industries/lastic/pekerman/product/yearly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18811A29-F2DE-4C6B-9F31-57862624272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -423,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/lastic/pekerman/product/yearly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18811A29-F2DE-4C6B-9F31-57862624272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C77EB0-D92B-400F-AF56-2296DA14924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -649,12 +649,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -664,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -698,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -732,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -764,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1566478</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2921312</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
         <v>29521927</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -872,7 +872,7 @@
         <v>55413265</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
@@ -894,7 +894,7 @@
         <v>89422982</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>89422982</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>466518</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1746867</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>16768226</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>30783805</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>49765416</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>49765416</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1582,7 +1582,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1614,7 +1614,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>297813</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>597973</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>567992</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>555531</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1840,7 +1840,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1892,7 +1892,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>36</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>-418539</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>-1503519</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>-16025640</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>-28885535</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>-46833233</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>38</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>14</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>16</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>40</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>24</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>25</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>-46833233</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2266,7 +2266,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2276,7 +2276,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2318,7 +2318,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>11</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>47979</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>243348</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>742586</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1898270</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>44</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>2932183</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>11</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>14</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>47</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>25</v>
       </c>
